--- a/Diagrams/RV64IF Instructions.xlsx
+++ b/Diagrams/RV64IF Instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RV64IF\Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7FB37B1-F0DB-4931-ACD3-C88B2583D652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9DEC5CC-1C40-4A63-B90F-CCB943AA7D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="812" firstSheet="1" activeTab="11" xr2:uid="{2BAAE419-95AF-426E-8956-707DE4A1C817}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="812" firstSheet="7" activeTab="11" xr2:uid="{2BAAE419-95AF-426E-8956-707DE4A1C817}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions (backup)" sheetId="9" state="hidden" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3470" uniqueCount="701">
   <si>
     <t>OPCODE</t>
   </si>
@@ -2141,6 +2141,90 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>Control Signals Output (24 bits so far)</t>
+  </si>
+  <si>
+    <t>FP_Div Start</t>
+  </si>
+  <si>
+    <t>1st Iteration</t>
+  </si>
+  <si>
+    <t>2nd Iteration</t>
+  </si>
+  <si>
+    <t>3rd Iteration</t>
+  </si>
+  <si>
+    <t>4th Iteration</t>
+  </si>
+  <si>
+    <t>5th Iteration</t>
+  </si>
+  <si>
+    <t>6th Iteration</t>
+  </si>
+  <si>
+    <t>7th Iteration</t>
+  </si>
+  <si>
+    <t>8th Iteration</t>
+  </si>
+  <si>
+    <t>9th Iteration</t>
+  </si>
+  <si>
+    <t>10th Iteration</t>
+  </si>
+  <si>
+    <t>11th Iteration</t>
+  </si>
+  <si>
+    <t>12th Iteration</t>
+  </si>
+  <si>
+    <t>13th Iteration</t>
+  </si>
+  <si>
+    <t>14th Iteration</t>
+  </si>
+  <si>
+    <t>15th Iteration</t>
+  </si>
+  <si>
+    <t>16th Iteration</t>
+  </si>
+  <si>
+    <t>17th Iteration</t>
+  </si>
+  <si>
+    <t>18th Iteration</t>
+  </si>
+  <si>
+    <t>19th Iteration</t>
+  </si>
+  <si>
+    <t>20th Iteration</t>
+  </si>
+  <si>
+    <t>21st Iteration</t>
+  </si>
+  <si>
+    <t>22nd Iteration</t>
+  </si>
+  <si>
+    <t>23rd Iteration</t>
+  </si>
+  <si>
+    <t>24th Iteration</t>
+  </si>
+  <si>
+    <t>Idle State</t>
+  </si>
+  <si>
+    <t>S25</t>
   </si>
 </sst>
 </file>
@@ -2232,7 +2316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2292,11 +2376,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2515,6 +2636,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2525,6 +2649,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4347,12 +4480,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="90" t="s">
         <v>456</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -4531,12 +4664,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="91" t="s">
         <v>457</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
@@ -4726,10 +4859,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477B5BD1-C4FE-432B-A639-BC0E9E1D1099}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4741,23 +4874,23 @@
     <col min="5" max="5" width="4.85546875" style="78" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="78" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="59"/>
-    <col min="8" max="8" width="11" style="78" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="59" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
       <c r="C1" s="79" t="s">
         <v>643</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="92" t="s">
         <v>644</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88" t="s">
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92" t="s">
         <v>672</v>
       </c>
     </row>
@@ -4783,7 +4916,7 @@
       <c r="G2" s="79" t="s">
         <v>669</v>
       </c>
-      <c r="H2" s="88"/>
+      <c r="H2" s="92"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -4795,19 +4928,21 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>377</v>
+      <c r="D3" s="4">
+        <v>1</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>377</v>
+      <c r="F3" s="4">
+        <v>0</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4826,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
@@ -4846,7 +4981,7 @@
         <v>377</v>
       </c>
       <c r="D5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -4857,7 +4992,9 @@
       <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="60"/>
+      <c r="H5" s="4" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -4881,7 +5018,9 @@
       <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="H6" s="60"/>
+      <c r="H6" s="4" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -4905,7 +5044,9 @@
       <c r="G7" s="4">
         <v>1</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="4" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -4929,7 +5070,9 @@
       <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="60"/>
+      <c r="H8" s="4" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -4953,7 +5096,9 @@
       <c r="G9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="60"/>
+      <c r="H9" s="4" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -4977,7 +5122,9 @@
       <c r="G10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="60"/>
+      <c r="H10" s="4" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -5001,7 +5148,9 @@
       <c r="G11" s="4">
         <v>1</v>
       </c>
-      <c r="H11" s="60"/>
+      <c r="H11" s="4" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -5025,7 +5174,9 @@
       <c r="G12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="60"/>
+      <c r="H12" s="4" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -5049,7 +5200,9 @@
       <c r="G13" s="4">
         <v>1</v>
       </c>
-      <c r="H13" s="60"/>
+      <c r="H13" s="4" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -5073,7 +5226,9 @@
       <c r="G14" s="4">
         <v>1</v>
       </c>
-      <c r="H14" s="60"/>
+      <c r="H14" s="4" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -5097,7 +5252,9 @@
       <c r="G15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="60"/>
+      <c r="H15" s="4" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -5121,7 +5278,9 @@
       <c r="G16" s="4">
         <v>1</v>
       </c>
-      <c r="H16" s="60"/>
+      <c r="H16" s="4" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -5145,7 +5304,9 @@
       <c r="G17" s="4">
         <v>1</v>
       </c>
-      <c r="H17" s="60"/>
+      <c r="H17" s="4" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -5169,7 +5330,9 @@
       <c r="G18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="60"/>
+      <c r="H18" s="4" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -5193,7 +5356,9 @@
       <c r="G19" s="4">
         <v>1</v>
       </c>
-      <c r="H19" s="60"/>
+      <c r="H19" s="4" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -5217,7 +5382,9 @@
       <c r="G20" s="4">
         <v>1</v>
       </c>
-      <c r="H20" s="60"/>
+      <c r="H20" s="4" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -5241,7 +5408,9 @@
       <c r="G21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="60"/>
+      <c r="H21" s="4" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -5265,7 +5434,9 @@
       <c r="G22" s="4">
         <v>1</v>
       </c>
-      <c r="H22" s="60"/>
+      <c r="H22" s="4" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -5289,7 +5460,9 @@
       <c r="G23" s="4">
         <v>1</v>
       </c>
-      <c r="H23" s="60"/>
+      <c r="H23" s="4" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -5313,7 +5486,9 @@
       <c r="G24" s="4">
         <v>1</v>
       </c>
-      <c r="H24" s="60"/>
+      <c r="H24" s="4" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -5337,7 +5512,9 @@
       <c r="G25" s="4">
         <v>1</v>
       </c>
-      <c r="H25" s="60"/>
+      <c r="H25" s="4" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -5361,7 +5538,9 @@
       <c r="G26" s="4">
         <v>1</v>
       </c>
-      <c r="H26" s="60"/>
+      <c r="H26" s="4" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -5385,7 +5564,9 @@
       <c r="G27" s="4">
         <v>1</v>
       </c>
-      <c r="H27" s="60"/>
+      <c r="H27" s="4" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -5409,7 +5590,35 @@
       <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="H28" s="60"/>
+      <c r="H28" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>699</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6580,32 +6789,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="84" t="s">
         <v>507</v>
       </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
     </row>
     <row r="2" spans="1:17" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="63" t="s">
         <v>375</v>
       </c>
@@ -7875,7 +8084,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="81" t="s">
         <v>306</v>
       </c>
       <c r="B26" s="45">
@@ -7928,7 +8137,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="45">
         <v>1</v>
       </c>
@@ -7979,7 +8188,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="81" t="s">
         <v>307</v>
       </c>
       <c r="B28" s="45">
@@ -8032,7 +8241,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="45">
         <v>1</v>
       </c>
@@ -8083,7 +8292,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="81" t="s">
         <v>308</v>
       </c>
       <c r="B30" s="45" t="s">
@@ -8136,7 +8345,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="45" t="s">
         <v>377</v>
       </c>
@@ -8187,7 +8396,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="81" t="s">
         <v>309</v>
       </c>
       <c r="B32" s="53" t="s">
@@ -8240,7 +8449,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
+      <c r="A33" s="82"/>
       <c r="B33" s="53" t="s">
         <v>377</v>
       </c>
@@ -8291,7 +8500,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="81" t="s">
         <v>310</v>
       </c>
       <c r="B34" s="45" t="s">
@@ -8344,7 +8553,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="45" t="s">
         <v>377</v>
       </c>
@@ -8395,7 +8604,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="81" t="s">
         <v>311</v>
       </c>
       <c r="B36" s="53" t="s">
@@ -8448,7 +8657,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
+      <c r="A37" s="82"/>
       <c r="B37" s="53" t="s">
         <v>377</v>
       </c>
@@ -11905,10 +12114,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1B4992-BF12-45C5-B162-CEFA3FF9CCA2}">
-  <dimension ref="A1:R99"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11919,139 +12128,147 @@
     <col min="4" max="4" width="4.28515625" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.42578125" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" style="27" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="34" customWidth="1"/>
-    <col min="9" max="9" width="10" style="27" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="27" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" style="27" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" style="27" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="27" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="27"/>
+    <col min="7" max="7" width="7.85546875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="34" customWidth="1"/>
+    <col min="10" max="10" width="10" style="27" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="27" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="27" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" style="27" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" style="27" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" style="27" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:18" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83" t="s">
-        <v>507</v>
-      </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-    </row>
-    <row r="2" spans="1:17" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="87"/>
+    </row>
+    <row r="2" spans="1:18" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="83"/>
+      <c r="B2" s="88" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="88" t="s">
         <v>374</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="88" t="s">
         <v>384</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="88" t="s">
         <v>383</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="88" t="s">
         <v>385</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="80">
+        <v>23</v>
+      </c>
+      <c r="H2" s="77" t="s">
         <v>636</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="I2" s="77" t="s">
         <v>635</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="J2" s="77" t="s">
         <v>634</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="K2" s="77" t="s">
         <v>633</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="L2" s="77" t="s">
         <v>632</v>
       </c>
-      <c r="L2" s="77" t="s">
+      <c r="M2" s="77" t="s">
         <v>631</v>
       </c>
-      <c r="M2" s="77" t="s">
+      <c r="N2" s="77" t="s">
         <v>465</v>
       </c>
-      <c r="N2" s="77" t="s">
+      <c r="O2" s="77" t="s">
         <v>630</v>
       </c>
-      <c r="O2" s="77" t="s">
+      <c r="P2" s="77" t="s">
         <v>629</v>
       </c>
-      <c r="P2" s="77" t="s">
+      <c r="Q2" s="77" t="s">
         <v>628</v>
       </c>
-      <c r="Q2" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="1" t="s">
+      <c r="R2" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="83"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="80" t="s">
+        <v>674</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="I3" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="M3" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>284</v>
       </c>
@@ -12070,41 +12287,44 @@
       <c r="F4" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="49">
+        <v>0</v>
+      </c>
+      <c r="H4" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="I4" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I4" s="51">
-        <v>1</v>
-      </c>
       <c r="J4" s="51">
-        <v>0</v>
-      </c>
-      <c r="K4" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="51">
+        <v>0</v>
+      </c>
+      <c r="L4" s="51" t="s">
         <v>490</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="M4" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M4" s="51">
-        <v>1</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>377</v>
+      <c r="N4" s="51">
+        <v>1</v>
       </c>
       <c r="O4" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P4" s="51" t="s">
         <v>497</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="Q4" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q4" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>285</v>
       </c>
@@ -12123,41 +12343,44 @@
       <c r="F5" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="49">
+        <v>0</v>
+      </c>
+      <c r="H5" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="I5" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I5" s="51">
-        <v>1</v>
-      </c>
       <c r="J5" s="51">
-        <v>0</v>
-      </c>
-      <c r="K5" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="51">
+        <v>0</v>
+      </c>
+      <c r="L5" s="51" t="s">
         <v>490</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="M5" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M5" s="51">
-        <v>1</v>
-      </c>
-      <c r="N5" s="51" t="s">
-        <v>377</v>
+      <c r="N5" s="51">
+        <v>1</v>
       </c>
       <c r="O5" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P5" s="51" t="s">
         <v>496</v>
       </c>
-      <c r="P5" s="51" t="s">
+      <c r="Q5" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q5" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>286</v>
       </c>
@@ -12176,41 +12399,44 @@
       <c r="F6" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="49">
+        <v>0</v>
+      </c>
+      <c r="H6" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="I6" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I6" s="51">
-        <v>1</v>
-      </c>
       <c r="J6" s="51">
-        <v>0</v>
-      </c>
-      <c r="K6" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="51">
+        <v>0</v>
+      </c>
+      <c r="L6" s="51" t="s">
         <v>490</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="M6" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M6" s="51">
-        <v>1</v>
-      </c>
-      <c r="N6" s="51" t="s">
-        <v>377</v>
+      <c r="N6" s="51">
+        <v>1</v>
       </c>
       <c r="O6" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P6" s="51" t="s">
         <v>498</v>
       </c>
-      <c r="P6" s="51" t="s">
+      <c r="Q6" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q6" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>287</v>
       </c>
@@ -12229,41 +12455,44 @@
       <c r="F7" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="49">
+        <v>0</v>
+      </c>
+      <c r="H7" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="I7" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I7" s="51">
-        <v>1</v>
-      </c>
       <c r="J7" s="51">
-        <v>0</v>
-      </c>
-      <c r="K7" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="51">
+        <v>0</v>
+      </c>
+      <c r="L7" s="51" t="s">
         <v>490</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="M7" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M7" s="51">
-        <v>1</v>
-      </c>
-      <c r="N7" s="51" t="s">
-        <v>377</v>
+      <c r="N7" s="51">
+        <v>1</v>
       </c>
       <c r="O7" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P7" s="51" t="s">
         <v>499</v>
       </c>
-      <c r="P7" s="51" t="s">
+      <c r="Q7" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q7" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>288</v>
       </c>
@@ -12282,41 +12511,44 @@
       <c r="F8" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="49">
+        <v>0</v>
+      </c>
+      <c r="H8" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="I8" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I8" s="51">
-        <v>1</v>
-      </c>
       <c r="J8" s="51">
-        <v>0</v>
-      </c>
-      <c r="K8" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="51">
+        <v>0</v>
+      </c>
+      <c r="L8" s="51" t="s">
         <v>490</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="M8" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M8" s="51">
-        <v>1</v>
-      </c>
-      <c r="N8" s="51" t="s">
-        <v>377</v>
+      <c r="N8" s="51">
+        <v>1</v>
       </c>
       <c r="O8" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P8" s="51" t="s">
         <v>500</v>
       </c>
-      <c r="P8" s="51" t="s">
+      <c r="Q8" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q8" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R8" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>289</v>
       </c>
@@ -12335,41 +12567,44 @@
       <c r="F9" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="49">
+        <v>0</v>
+      </c>
+      <c r="H9" s="52" t="s">
         <v>459</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="I9" s="52" t="s">
         <v>376</v>
       </c>
-      <c r="I9" s="49">
-        <v>1</v>
-      </c>
       <c r="J9" s="49">
-        <v>0</v>
-      </c>
-      <c r="K9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="49">
+        <v>0</v>
+      </c>
+      <c r="L9" s="49" t="s">
         <v>490</v>
       </c>
-      <c r="L9" s="52" t="s">
+      <c r="M9" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="M9" s="49">
-        <v>1</v>
-      </c>
-      <c r="N9" s="49" t="s">
-        <v>377</v>
+      <c r="N9" s="49">
+        <v>1</v>
       </c>
       <c r="O9" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="P9" s="49" t="s">
         <v>501</v>
       </c>
-      <c r="P9" s="49" t="s">
+      <c r="Q9" s="49" t="s">
         <v>462</v>
       </c>
-      <c r="Q9" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>290</v>
       </c>
@@ -12388,41 +12623,44 @@
       <c r="F10" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="49">
+        <v>0</v>
+      </c>
+      <c r="H10" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="I10" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I10" s="51">
-        <v>1</v>
-      </c>
       <c r="J10" s="51">
-        <v>0</v>
-      </c>
-      <c r="K10" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="51">
+        <v>0</v>
+      </c>
+      <c r="L10" s="51" t="s">
         <v>490</v>
       </c>
-      <c r="L10" s="50" t="s">
+      <c r="M10" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M10" s="51">
-        <v>1</v>
-      </c>
-      <c r="N10" s="51" t="s">
-        <v>377</v>
+      <c r="N10" s="51">
+        <v>1</v>
       </c>
       <c r="O10" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P10" s="51" t="s">
         <v>502</v>
       </c>
-      <c r="P10" s="51" t="s">
+      <c r="Q10" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q10" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>291</v>
       </c>
@@ -12441,41 +12679,44 @@
       <c r="F11" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="49">
+        <v>0</v>
+      </c>
+      <c r="H11" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="I11" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I11" s="51">
-        <v>1</v>
-      </c>
       <c r="J11" s="51">
-        <v>0</v>
-      </c>
-      <c r="K11" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="51">
+        <v>0</v>
+      </c>
+      <c r="L11" s="51" t="s">
         <v>490</v>
       </c>
-      <c r="L11" s="50" t="s">
+      <c r="M11" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M11" s="51">
-        <v>1</v>
-      </c>
-      <c r="N11" s="51" t="s">
-        <v>377</v>
+      <c r="N11" s="51">
+        <v>1</v>
       </c>
       <c r="O11" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P11" s="51" t="s">
         <v>503</v>
       </c>
-      <c r="P11" s="51" t="s">
+      <c r="Q11" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q11" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>292</v>
       </c>
@@ -12494,41 +12735,44 @@
       <c r="F12" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="49">
+        <v>0</v>
+      </c>
+      <c r="H12" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="I12" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I12" s="51">
-        <v>1</v>
-      </c>
       <c r="J12" s="51">
-        <v>0</v>
-      </c>
-      <c r="K12" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="51">
+        <v>0</v>
+      </c>
+      <c r="L12" s="51" t="s">
         <v>490</v>
       </c>
-      <c r="L12" s="50" t="s">
+      <c r="M12" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M12" s="51">
-        <v>1</v>
-      </c>
-      <c r="N12" s="51" t="s">
-        <v>377</v>
+      <c r="N12" s="51">
+        <v>1</v>
       </c>
       <c r="O12" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P12" s="51" t="s">
         <v>503</v>
       </c>
-      <c r="P12" s="51" t="s">
+      <c r="Q12" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q12" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>293</v>
       </c>
@@ -12547,41 +12791,44 @@
       <c r="F13" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="49">
+        <v>0</v>
+      </c>
+      <c r="H13" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="I13" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I13" s="51">
-        <v>1</v>
-      </c>
       <c r="J13" s="51">
-        <v>0</v>
-      </c>
-      <c r="K13" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="51">
+        <v>0</v>
+      </c>
+      <c r="L13" s="51" t="s">
         <v>491</v>
       </c>
-      <c r="L13" s="50" t="s">
+      <c r="M13" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M13" s="51">
-        <v>1</v>
-      </c>
-      <c r="N13" s="51" t="s">
-        <v>377</v>
+      <c r="N13" s="51">
+        <v>1</v>
       </c>
       <c r="O13" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P13" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="P13" s="51" t="s">
+      <c r="Q13" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q13" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
         <v>294</v>
       </c>
@@ -12600,41 +12847,44 @@
       <c r="F14" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="49">
+        <v>0</v>
+      </c>
+      <c r="H14" s="50" t="s">
         <v>461</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="I14" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I14" s="51">
-        <v>1</v>
-      </c>
       <c r="J14" s="51">
-        <v>0</v>
-      </c>
-      <c r="K14" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="51">
+        <v>0</v>
+      </c>
+      <c r="L14" s="51" t="s">
         <v>491</v>
       </c>
-      <c r="L14" s="50" t="s">
+      <c r="M14" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M14" s="51" t="s">
-        <v>377</v>
-      </c>
       <c r="N14" s="51" t="s">
         <v>377</v>
       </c>
       <c r="O14" s="51" t="s">
-        <v>462</v>
+        <v>377</v>
       </c>
       <c r="P14" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q14" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q14" s="51" t="s">
+        <v>462</v>
+      </c>
+      <c r="R14" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
         <v>378</v>
       </c>
@@ -12653,41 +12903,44 @@
       <c r="F15" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="51">
+        <v>0</v>
+      </c>
+      <c r="H15" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="I15" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I15" s="51">
-        <v>1</v>
-      </c>
       <c r="J15" s="51">
-        <v>0</v>
-      </c>
-      <c r="K15" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="51">
+        <v>0</v>
+      </c>
+      <c r="L15" s="51" t="s">
         <v>492</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="M15" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M15" s="51">
-        <v>0</v>
-      </c>
-      <c r="N15" s="51" t="s">
-        <v>377</v>
+      <c r="N15" s="51">
+        <v>0</v>
       </c>
       <c r="O15" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P15" s="51" t="s">
         <v>497</v>
       </c>
-      <c r="P15" s="51" t="s">
+      <c r="Q15" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q15" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>295</v>
       </c>
@@ -12706,41 +12959,44 @@
       <c r="F16" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="51">
+        <v>0</v>
+      </c>
+      <c r="H16" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="I16" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I16" s="51">
-        <v>1</v>
-      </c>
       <c r="J16" s="51">
-        <v>0</v>
-      </c>
-      <c r="K16" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="51">
+        <v>0</v>
+      </c>
+      <c r="L16" s="51" t="s">
         <v>492</v>
       </c>
-      <c r="L16" s="50" t="s">
+      <c r="M16" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M16" s="51">
-        <v>0</v>
-      </c>
-      <c r="N16" s="51" t="s">
-        <v>377</v>
+      <c r="N16" s="51">
+        <v>0</v>
       </c>
       <c r="O16" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P16" s="51" t="s">
         <v>496</v>
       </c>
-      <c r="P16" s="51" t="s">
+      <c r="Q16" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q16" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R16" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>296</v>
       </c>
@@ -12759,41 +13015,44 @@
       <c r="F17" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="49">
+        <v>0</v>
+      </c>
+      <c r="H17" s="52" t="s">
         <v>459</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="I17" s="52" t="s">
         <v>376</v>
       </c>
-      <c r="I17" s="49">
-        <v>1</v>
-      </c>
       <c r="J17" s="49">
-        <v>0</v>
-      </c>
-      <c r="K17" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="49">
+        <v>0</v>
+      </c>
+      <c r="L17" s="49" t="s">
         <v>492</v>
       </c>
-      <c r="L17" s="52" t="s">
+      <c r="M17" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="M17" s="49">
-        <v>0</v>
-      </c>
-      <c r="N17" s="49" t="s">
-        <v>377</v>
+      <c r="N17" s="49">
+        <v>0</v>
       </c>
       <c r="O17" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="P17" s="49" t="s">
         <v>501</v>
       </c>
-      <c r="P17" s="49" t="s">
+      <c r="Q17" s="49" t="s">
         <v>462</v>
       </c>
-      <c r="Q17" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R17" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="s">
         <v>297</v>
       </c>
@@ -12812,41 +13071,44 @@
       <c r="F18" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="51">
+        <v>0</v>
+      </c>
+      <c r="H18" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="I18" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I18" s="51">
-        <v>1</v>
-      </c>
       <c r="J18" s="51">
-        <v>0</v>
-      </c>
-      <c r="K18" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="51">
+        <v>0</v>
+      </c>
+      <c r="L18" s="51" t="s">
         <v>492</v>
       </c>
-      <c r="L18" s="50" t="s">
+      <c r="M18" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M18" s="51">
-        <v>0</v>
-      </c>
-      <c r="N18" s="51" t="s">
-        <v>377</v>
+      <c r="N18" s="51">
+        <v>0</v>
       </c>
       <c r="O18" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P18" s="51" t="s">
         <v>498</v>
       </c>
-      <c r="P18" s="51" t="s">
+      <c r="Q18" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q18" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R18" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
         <v>298</v>
       </c>
@@ -12865,41 +13127,44 @@
       <c r="F19" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="51">
+        <v>0</v>
+      </c>
+      <c r="H19" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="I19" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I19" s="51">
-        <v>1</v>
-      </c>
       <c r="J19" s="51">
-        <v>0</v>
-      </c>
-      <c r="K19" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="51">
+        <v>0</v>
+      </c>
+      <c r="L19" s="51" t="s">
         <v>492</v>
       </c>
-      <c r="L19" s="50" t="s">
+      <c r="M19" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M19" s="51">
-        <v>0</v>
-      </c>
-      <c r="N19" s="51" t="s">
-        <v>377</v>
+      <c r="N19" s="51">
+        <v>0</v>
       </c>
       <c r="O19" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P19" s="51" t="s">
         <v>499</v>
       </c>
-      <c r="P19" s="51" t="s">
+      <c r="Q19" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q19" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R19" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="s">
         <v>299</v>
       </c>
@@ -12918,41 +13183,44 @@
       <c r="F20" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="51">
+        <v>0</v>
+      </c>
+      <c r="H20" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H20" s="50" t="s">
+      <c r="I20" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I20" s="51">
-        <v>1</v>
-      </c>
       <c r="J20" s="51">
-        <v>0</v>
-      </c>
-      <c r="K20" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="51">
+        <v>0</v>
+      </c>
+      <c r="L20" s="51" t="s">
         <v>492</v>
       </c>
-      <c r="L20" s="50" t="s">
+      <c r="M20" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M20" s="51">
-        <v>0</v>
-      </c>
-      <c r="N20" s="51" t="s">
-        <v>377</v>
+      <c r="N20" s="51">
+        <v>0</v>
       </c>
       <c r="O20" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P20" s="51" t="s">
         <v>500</v>
       </c>
-      <c r="P20" s="51" t="s">
+      <c r="Q20" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q20" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R20" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>300</v>
       </c>
@@ -12971,41 +13239,44 @@
       <c r="F21" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="51">
+        <v>0</v>
+      </c>
+      <c r="H21" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="I21" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I21" s="51">
-        <v>1</v>
-      </c>
       <c r="J21" s="51">
-        <v>0</v>
-      </c>
-      <c r="K21" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="51">
+        <v>0</v>
+      </c>
+      <c r="L21" s="51" t="s">
         <v>492</v>
       </c>
-      <c r="L21" s="50" t="s">
+      <c r="M21" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M21" s="51">
-        <v>0</v>
-      </c>
-      <c r="N21" s="51" t="s">
-        <v>377</v>
+      <c r="N21" s="51">
+        <v>0</v>
       </c>
       <c r="O21" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P21" s="51" t="s">
         <v>502</v>
       </c>
-      <c r="P21" s="51" t="s">
+      <c r="Q21" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q21" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R21" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>301</v>
       </c>
@@ -13024,41 +13295,44 @@
       <c r="F22" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="51">
+        <v>0</v>
+      </c>
+      <c r="H22" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="I22" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I22" s="51">
-        <v>1</v>
-      </c>
       <c r="J22" s="51">
-        <v>0</v>
-      </c>
-      <c r="K22" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="51">
+        <v>0</v>
+      </c>
+      <c r="L22" s="51" t="s">
         <v>492</v>
       </c>
-      <c r="L22" s="50" t="s">
+      <c r="M22" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M22" s="51">
-        <v>0</v>
-      </c>
-      <c r="N22" s="51" t="s">
-        <v>377</v>
+      <c r="N22" s="51">
+        <v>0</v>
       </c>
       <c r="O22" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P22" s="51" t="s">
         <v>503</v>
       </c>
-      <c r="P22" s="51" t="s">
+      <c r="Q22" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q22" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R22" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="s">
         <v>302</v>
       </c>
@@ -13077,41 +13351,44 @@
       <c r="F23" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="51">
+        <v>0</v>
+      </c>
+      <c r="H23" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="I23" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I23" s="51">
-        <v>1</v>
-      </c>
       <c r="J23" s="51">
-        <v>0</v>
-      </c>
-      <c r="K23" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="51">
+        <v>0</v>
+      </c>
+      <c r="L23" s="51" t="s">
         <v>492</v>
       </c>
-      <c r="L23" s="50" t="s">
+      <c r="M23" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M23" s="51">
-        <v>0</v>
-      </c>
-      <c r="N23" s="51" t="s">
-        <v>377</v>
+      <c r="N23" s="51">
+        <v>0</v>
       </c>
       <c r="O23" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P23" s="51" t="s">
         <v>600</v>
       </c>
-      <c r="P23" s="51" t="s">
+      <c r="Q23" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q23" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R23" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
         <v>303</v>
       </c>
@@ -13130,41 +13407,44 @@
       <c r="F24" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="51">
+        <v>0</v>
+      </c>
+      <c r="H24" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="I24" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="I24" s="51">
-        <v>1</v>
-      </c>
       <c r="J24" s="51">
-        <v>0</v>
-      </c>
-      <c r="K24" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="51">
+        <v>0</v>
+      </c>
+      <c r="L24" s="51" t="s">
         <v>492</v>
       </c>
-      <c r="L24" s="50" t="s">
+      <c r="M24" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="M24" s="51">
-        <v>0</v>
-      </c>
-      <c r="N24" s="51" t="s">
-        <v>377</v>
+      <c r="N24" s="51">
+        <v>0</v>
       </c>
       <c r="O24" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P24" s="51" t="s">
         <v>503</v>
       </c>
-      <c r="P24" s="51" t="s">
+      <c r="Q24" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="Q24" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R24" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>304</v>
       </c>
@@ -13183,42 +13463,45 @@
       <c r="F25" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="45">
+        <v>0</v>
+      </c>
+      <c r="H25" s="46" t="s">
         <v>463</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="I25" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="I25" s="45">
-        <v>1</v>
-      </c>
       <c r="J25" s="45">
-        <v>0</v>
-      </c>
-      <c r="K25" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="45">
+        <v>0</v>
+      </c>
+      <c r="L25" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="L25" s="46" t="s">
+      <c r="M25" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="M25" s="45" t="s">
-        <v>377</v>
-      </c>
       <c r="N25" s="45" t="s">
         <v>377</v>
       </c>
       <c r="O25" s="45" t="s">
-        <v>462</v>
+        <v>377</v>
       </c>
       <c r="P25" s="45" t="s">
         <v>462</v>
       </c>
-      <c r="Q25" s="45">
-        <v>0</v>
-      </c>
-      <c r="R25" s="34"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q25" s="45" t="s">
+        <v>462</v>
+      </c>
+      <c r="R25" s="45">
+        <v>0</v>
+      </c>
+      <c r="S25" s="34"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>305</v>
       </c>
@@ -13237,43 +13520,46 @@
       <c r="F26" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="45">
+        <v>0</v>
+      </c>
+      <c r="H26" s="46" t="s">
         <v>463</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="I26" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="I26" s="45">
-        <v>1</v>
-      </c>
       <c r="J26" s="45">
-        <v>0</v>
-      </c>
-      <c r="K26" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="45">
+        <v>0</v>
+      </c>
+      <c r="L26" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="L26" s="46" t="s">
+      <c r="M26" s="46" t="s">
         <v>465</v>
       </c>
-      <c r="M26" s="45">
-        <v>1</v>
-      </c>
-      <c r="N26" s="45" t="s">
-        <v>377</v>
+      <c r="N26" s="45">
+        <v>1</v>
       </c>
       <c r="O26" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="P26" s="45" t="s">
         <v>497</v>
       </c>
-      <c r="P26" s="45" t="s">
+      <c r="Q26" s="45" t="s">
         <v>462</v>
       </c>
-      <c r="Q26" s="45">
-        <v>0</v>
-      </c>
-      <c r="R26" s="34"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="80" t="s">
+      <c r="R26" s="45">
+        <v>0</v>
+      </c>
+      <c r="S26" s="34"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
         <v>306</v>
       </c>
       <c r="B27" s="45">
@@ -13291,42 +13577,45 @@
       <c r="F27" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="45">
+        <v>0</v>
+      </c>
+      <c r="H27" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="H27" s="46" t="s">
+      <c r="I27" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="I27" s="45">
-        <v>0</v>
-      </c>
       <c r="J27" s="45">
         <v>0</v>
       </c>
-      <c r="K27" s="45" t="s">
+      <c r="K27" s="45">
+        <v>0</v>
+      </c>
+      <c r="L27" s="45" t="s">
         <v>494</v>
       </c>
-      <c r="L27" s="46" t="s">
+      <c r="M27" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="M27" s="45">
-        <v>0</v>
-      </c>
-      <c r="N27" s="45" t="s">
-        <v>377</v>
+      <c r="N27" s="45">
+        <v>0</v>
       </c>
       <c r="O27" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="P27" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="P27" s="45" t="s">
+      <c r="Q27" s="45" t="s">
         <v>462</v>
       </c>
-      <c r="Q27" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
+      <c r="R27" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="82"/>
       <c r="B28" s="45">
         <v>1</v>
       </c>
@@ -13342,42 +13631,45 @@
       <c r="F28" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="45">
+        <v>0</v>
+      </c>
+      <c r="H28" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="I28" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="I28" s="45">
-        <v>0</v>
-      </c>
       <c r="J28" s="45">
         <v>0</v>
       </c>
-      <c r="K28" s="45" t="s">
+      <c r="K28" s="45">
+        <v>0</v>
+      </c>
+      <c r="L28" s="45" t="s">
         <v>494</v>
       </c>
-      <c r="L28" s="46" t="s">
+      <c r="M28" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="M28" s="45">
-        <v>0</v>
-      </c>
-      <c r="N28" s="45" t="s">
-        <v>377</v>
+      <c r="N28" s="45">
+        <v>0</v>
       </c>
       <c r="O28" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="P28" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="P28" s="45" t="s">
+      <c r="Q28" s="45" t="s">
         <v>462</v>
       </c>
-      <c r="Q28" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="80" t="s">
+      <c r="R28" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
         <v>307</v>
       </c>
       <c r="B29" s="45">
@@ -13395,42 +13687,45 @@
       <c r="F29" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="45">
+        <v>0</v>
+      </c>
+      <c r="H29" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="I29" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="I29" s="45">
-        <v>0</v>
-      </c>
       <c r="J29" s="45">
         <v>0</v>
       </c>
-      <c r="K29" s="45" t="s">
+      <c r="K29" s="45">
+        <v>0</v>
+      </c>
+      <c r="L29" s="45" t="s">
         <v>494</v>
       </c>
-      <c r="L29" s="46" t="s">
+      <c r="M29" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="M29" s="45">
-        <v>0</v>
-      </c>
-      <c r="N29" s="45" t="s">
-        <v>377</v>
+      <c r="N29" s="45">
+        <v>0</v>
       </c>
       <c r="O29" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="P29" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="P29" s="45" t="s">
+      <c r="Q29" s="45" t="s">
         <v>462</v>
       </c>
-      <c r="Q29" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
+      <c r="R29" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="82"/>
       <c r="B30" s="45">
         <v>1</v>
       </c>
@@ -13446,42 +13741,45 @@
       <c r="F30" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="45">
+        <v>0</v>
+      </c>
+      <c r="H30" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="H30" s="46" t="s">
+      <c r="I30" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="I30" s="45">
-        <v>0</v>
-      </c>
       <c r="J30" s="45">
         <v>0</v>
       </c>
-      <c r="K30" s="45" t="s">
+      <c r="K30" s="45">
+        <v>0</v>
+      </c>
+      <c r="L30" s="45" t="s">
         <v>494</v>
       </c>
-      <c r="L30" s="46" t="s">
+      <c r="M30" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="M30" s="45">
-        <v>0</v>
-      </c>
-      <c r="N30" s="45" t="s">
-        <v>377</v>
+      <c r="N30" s="45">
+        <v>0</v>
       </c>
       <c r="O30" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="P30" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="P30" s="45" t="s">
+      <c r="Q30" s="45" t="s">
         <v>462</v>
       </c>
-      <c r="Q30" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="80" t="s">
+      <c r="R30" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
         <v>308</v>
       </c>
       <c r="B31" s="45" t="s">
@@ -13499,42 +13797,45 @@
       <c r="F31" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="45">
+        <v>0</v>
+      </c>
+      <c r="H31" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="H31" s="46" t="s">
+      <c r="I31" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="I31" s="45">
-        <v>0</v>
-      </c>
       <c r="J31" s="45">
         <v>0</v>
       </c>
-      <c r="K31" s="45" t="s">
+      <c r="K31" s="45">
+        <v>0</v>
+      </c>
+      <c r="L31" s="45" t="s">
         <v>494</v>
       </c>
-      <c r="L31" s="46" t="s">
+      <c r="M31" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="M31" s="45">
-        <v>0</v>
-      </c>
-      <c r="N31" s="45" t="s">
-        <v>377</v>
+      <c r="N31" s="45">
+        <v>0</v>
       </c>
       <c r="O31" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="P31" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="P31" s="45" t="s">
+      <c r="Q31" s="45" t="s">
         <v>462</v>
       </c>
-      <c r="Q31" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
+      <c r="R31" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="82"/>
       <c r="B32" s="45" t="s">
         <v>377</v>
       </c>
@@ -13550,42 +13851,45 @@
       <c r="F32" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="45">
+        <v>0</v>
+      </c>
+      <c r="H32" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="H32" s="46" t="s">
+      <c r="I32" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="I32" s="45">
-        <v>0</v>
-      </c>
       <c r="J32" s="45">
         <v>0</v>
       </c>
-      <c r="K32" s="45" t="s">
+      <c r="K32" s="45">
+        <v>0</v>
+      </c>
+      <c r="L32" s="45" t="s">
         <v>494</v>
       </c>
-      <c r="L32" s="46" t="s">
+      <c r="M32" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="M32" s="45">
-        <v>0</v>
-      </c>
-      <c r="N32" s="45" t="s">
-        <v>377</v>
+      <c r="N32" s="45">
+        <v>0</v>
       </c>
       <c r="O32" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="P32" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="P32" s="45" t="s">
+      <c r="Q32" s="45" t="s">
         <v>462</v>
       </c>
-      <c r="Q32" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="80" t="s">
+      <c r="R32" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="81" t="s">
         <v>309</v>
       </c>
       <c r="B33" s="53" t="s">
@@ -13603,42 +13907,45 @@
       <c r="F33" s="53" t="s">
         <v>377</v>
       </c>
-      <c r="G33" s="54" t="s">
+      <c r="G33" s="53">
+        <v>0</v>
+      </c>
+      <c r="H33" s="54" t="s">
         <v>460</v>
       </c>
-      <c r="H33" s="54" t="s">
+      <c r="I33" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="I33" s="53">
-        <v>0</v>
-      </c>
       <c r="J33" s="53">
         <v>0</v>
       </c>
-      <c r="K33" s="53" t="s">
+      <c r="K33" s="53">
+        <v>0</v>
+      </c>
+      <c r="L33" s="53" t="s">
         <v>494</v>
       </c>
-      <c r="L33" s="54" t="s">
+      <c r="M33" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="M33" s="53">
-        <v>0</v>
-      </c>
-      <c r="N33" s="53" t="s">
-        <v>377</v>
+      <c r="N33" s="53">
+        <v>0</v>
       </c>
       <c r="O33" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="P33" s="53" t="s">
         <v>501</v>
       </c>
-      <c r="P33" s="53" t="s">
+      <c r="Q33" s="53" t="s">
         <v>462</v>
       </c>
-      <c r="Q33" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
+      <c r="R33" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="82"/>
       <c r="B34" s="53" t="s">
         <v>377</v>
       </c>
@@ -13654,42 +13961,45 @@
       <c r="F34" s="53" t="s">
         <v>377</v>
       </c>
-      <c r="G34" s="54" t="s">
+      <c r="G34" s="53">
+        <v>0</v>
+      </c>
+      <c r="H34" s="54" t="s">
         <v>460</v>
       </c>
-      <c r="H34" s="54" t="s">
+      <c r="I34" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="I34" s="53">
-        <v>0</v>
-      </c>
       <c r="J34" s="53">
         <v>0</v>
       </c>
-      <c r="K34" s="53" t="s">
+      <c r="K34" s="53">
+        <v>0</v>
+      </c>
+      <c r="L34" s="53" t="s">
         <v>494</v>
       </c>
-      <c r="L34" s="54" t="s">
+      <c r="M34" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="M34" s="53">
-        <v>0</v>
-      </c>
-      <c r="N34" s="53" t="s">
-        <v>377</v>
+      <c r="N34" s="53">
+        <v>0</v>
       </c>
       <c r="O34" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="P34" s="53" t="s">
         <v>501</v>
       </c>
-      <c r="P34" s="53" t="s">
+      <c r="Q34" s="53" t="s">
         <v>462</v>
       </c>
-      <c r="Q34" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="80" t="s">
+      <c r="R34" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="81" t="s">
         <v>310</v>
       </c>
       <c r="B35" s="45" t="s">
@@ -13707,42 +14017,45 @@
       <c r="F35" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="G35" s="46" t="s">
+      <c r="G35" s="45">
+        <v>0</v>
+      </c>
+      <c r="H35" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="H35" s="46" t="s">
+      <c r="I35" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="I35" s="45">
-        <v>0</v>
-      </c>
       <c r="J35" s="45">
         <v>0</v>
       </c>
-      <c r="K35" s="45" t="s">
+      <c r="K35" s="45">
+        <v>0</v>
+      </c>
+      <c r="L35" s="45" t="s">
         <v>494</v>
       </c>
-      <c r="L35" s="46" t="s">
+      <c r="M35" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="M35" s="45">
-        <v>0</v>
-      </c>
-      <c r="N35" s="45" t="s">
-        <v>377</v>
+      <c r="N35" s="45">
+        <v>0</v>
       </c>
       <c r="O35" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="P35" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="P35" s="45" t="s">
+      <c r="Q35" s="45" t="s">
         <v>462</v>
       </c>
-      <c r="Q35" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
+      <c r="R35" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="82"/>
       <c r="B36" s="45" t="s">
         <v>377</v>
       </c>
@@ -13758,42 +14071,45 @@
       <c r="F36" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="45">
+        <v>0</v>
+      </c>
+      <c r="H36" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="H36" s="46" t="s">
+      <c r="I36" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="I36" s="45">
-        <v>0</v>
-      </c>
       <c r="J36" s="45">
         <v>0</v>
       </c>
-      <c r="K36" s="45" t="s">
+      <c r="K36" s="45">
+        <v>0</v>
+      </c>
+      <c r="L36" s="45" t="s">
         <v>494</v>
       </c>
-      <c r="L36" s="46" t="s">
+      <c r="M36" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="M36" s="45">
-        <v>0</v>
-      </c>
-      <c r="N36" s="45" t="s">
-        <v>377</v>
+      <c r="N36" s="45">
+        <v>0</v>
       </c>
       <c r="O36" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="P36" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="P36" s="45" t="s">
+      <c r="Q36" s="45" t="s">
         <v>462</v>
       </c>
-      <c r="Q36" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="80" t="s">
+      <c r="R36" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="81" t="s">
         <v>311</v>
       </c>
       <c r="B37" s="53" t="s">
@@ -13811,42 +14127,45 @@
       <c r="F37" s="53">
         <v>0</v>
       </c>
-      <c r="G37" s="54" t="s">
+      <c r="G37" s="53">
+        <v>0</v>
+      </c>
+      <c r="H37" s="54" t="s">
         <v>460</v>
       </c>
-      <c r="H37" s="54" t="s">
+      <c r="I37" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="I37" s="53">
-        <v>0</v>
-      </c>
       <c r="J37" s="53">
         <v>0</v>
       </c>
-      <c r="K37" s="53" t="s">
+      <c r="K37" s="53">
+        <v>0</v>
+      </c>
+      <c r="L37" s="53" t="s">
         <v>494</v>
       </c>
-      <c r="L37" s="54" t="s">
+      <c r="M37" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="M37" s="53">
-        <v>0</v>
-      </c>
-      <c r="N37" s="53" t="s">
-        <v>377</v>
+      <c r="N37" s="53">
+        <v>0</v>
       </c>
       <c r="O37" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="P37" s="53" t="s">
         <v>501</v>
       </c>
-      <c r="P37" s="53" t="s">
+      <c r="Q37" s="53" t="s">
         <v>462</v>
       </c>
-      <c r="Q37" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
+      <c r="R37" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="82"/>
       <c r="B38" s="53" t="s">
         <v>377</v>
       </c>
@@ -13862,41 +14181,44 @@
       <c r="F38" s="53">
         <v>1</v>
       </c>
-      <c r="G38" s="54" t="s">
+      <c r="G38" s="53">
+        <v>0</v>
+      </c>
+      <c r="H38" s="54" t="s">
         <v>460</v>
       </c>
-      <c r="H38" s="54" t="s">
+      <c r="I38" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="I38" s="53">
-        <v>0</v>
-      </c>
       <c r="J38" s="53">
         <v>0</v>
       </c>
-      <c r="K38" s="53" t="s">
+      <c r="K38" s="53">
+        <v>0</v>
+      </c>
+      <c r="L38" s="53" t="s">
         <v>494</v>
       </c>
-      <c r="L38" s="54" t="s">
+      <c r="M38" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="M38" s="53">
-        <v>0</v>
-      </c>
-      <c r="N38" s="53" t="s">
-        <v>377</v>
+      <c r="N38" s="53">
+        <v>0</v>
       </c>
       <c r="O38" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="P38" s="53" t="s">
         <v>501</v>
       </c>
-      <c r="P38" s="53" t="s">
+      <c r="Q38" s="53" t="s">
         <v>462</v>
       </c>
-      <c r="Q38" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>312</v>
       </c>
@@ -13915,41 +14237,44 @@
       <c r="F39" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="29">
+        <v>0</v>
+      </c>
+      <c r="H39" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="H39" s="32" t="s">
+      <c r="I39" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="I39" s="29">
-        <v>1</v>
-      </c>
       <c r="J39" s="29">
-        <v>0</v>
-      </c>
-      <c r="K39" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="29">
+        <v>0</v>
+      </c>
+      <c r="L39" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="L39" s="32" t="s">
+      <c r="M39" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="M39" s="29">
-        <v>1</v>
-      </c>
-      <c r="N39" s="29" t="s">
-        <v>377</v>
+      <c r="N39" s="29">
+        <v>1</v>
       </c>
       <c r="O39" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="P39" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="P39" s="29" t="s">
+      <c r="Q39" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="Q39" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>313</v>
       </c>
@@ -13968,41 +14293,44 @@
       <c r="F40" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="G40" s="32" t="s">
+      <c r="G40" s="29">
+        <v>0</v>
+      </c>
+      <c r="H40" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="H40" s="32" t="s">
+      <c r="I40" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="I40" s="29">
-        <v>1</v>
-      </c>
       <c r="J40" s="29">
-        <v>0</v>
-      </c>
-      <c r="K40" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="29">
+        <v>0</v>
+      </c>
+      <c r="L40" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="L40" s="32" t="s">
+      <c r="M40" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="M40" s="29">
-        <v>1</v>
-      </c>
-      <c r="N40" s="29" t="s">
-        <v>377</v>
+      <c r="N40" s="29">
+        <v>1</v>
       </c>
       <c r="O40" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="P40" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="P40" s="29" t="s">
+      <c r="Q40" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="Q40" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>314</v>
       </c>
@@ -14021,41 +14349,44 @@
       <c r="F41" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="29">
+        <v>0</v>
+      </c>
+      <c r="H41" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="H41" s="32" t="s">
+      <c r="I41" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="I41" s="29">
-        <v>1</v>
-      </c>
       <c r="J41" s="29">
-        <v>0</v>
-      </c>
-      <c r="K41" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" s="29">
+        <v>0</v>
+      </c>
+      <c r="L41" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="L41" s="32" t="s">
+      <c r="M41" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="M41" s="29">
-        <v>1</v>
-      </c>
-      <c r="N41" s="29" t="s">
-        <v>377</v>
+      <c r="N41" s="29">
+        <v>1</v>
       </c>
       <c r="O41" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="P41" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="P41" s="29" t="s">
+      <c r="Q41" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="Q41" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>315</v>
       </c>
@@ -14074,41 +14405,44 @@
       <c r="F42" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="G42" s="32" t="s">
+      <c r="G42" s="29">
+        <v>0</v>
+      </c>
+      <c r="H42" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="I42" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="I42" s="29">
-        <v>1</v>
-      </c>
       <c r="J42" s="29">
-        <v>0</v>
-      </c>
-      <c r="K42" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="29">
+        <v>0</v>
+      </c>
+      <c r="L42" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="L42" s="32" t="s">
+      <c r="M42" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="M42" s="29">
-        <v>1</v>
-      </c>
-      <c r="N42" s="29" t="s">
-        <v>377</v>
+      <c r="N42" s="29">
+        <v>1</v>
       </c>
       <c r="O42" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="P42" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="P42" s="29" t="s">
+      <c r="Q42" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="Q42" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>316</v>
       </c>
@@ -14127,41 +14461,44 @@
       <c r="F43" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="G43" s="32" t="s">
+      <c r="G43" s="29">
+        <v>0</v>
+      </c>
+      <c r="H43" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="H43" s="32" t="s">
+      <c r="I43" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="I43" s="29">
-        <v>1</v>
-      </c>
       <c r="J43" s="29">
-        <v>0</v>
-      </c>
-      <c r="K43" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="29">
+        <v>0</v>
+      </c>
+      <c r="L43" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="L43" s="32" t="s">
+      <c r="M43" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="M43" s="29">
-        <v>0</v>
-      </c>
-      <c r="N43" s="29" t="s">
-        <v>377</v>
+      <c r="N43" s="29">
+        <v>0</v>
       </c>
       <c r="O43" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="P43" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="P43" s="29" t="s">
+      <c r="Q43" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="Q43" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>317</v>
       </c>
@@ -14180,41 +14517,44 @@
       <c r="F44" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="G44" s="32" t="s">
+      <c r="G44" s="29">
+        <v>0</v>
+      </c>
+      <c r="H44" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="H44" s="32" t="s">
+      <c r="I44" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="I44" s="29">
-        <v>1</v>
-      </c>
       <c r="J44" s="29">
-        <v>0</v>
-      </c>
-      <c r="K44" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" s="29">
+        <v>0</v>
+      </c>
+      <c r="L44" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="L44" s="32" t="s">
+      <c r="M44" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="M44" s="29">
-        <v>0</v>
-      </c>
-      <c r="N44" s="29" t="s">
-        <v>377</v>
+      <c r="N44" s="29">
+        <v>0</v>
       </c>
       <c r="O44" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="P44" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="P44" s="29" t="s">
+      <c r="Q44" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="Q44" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>318</v>
       </c>
@@ -14233,41 +14573,44 @@
       <c r="F45" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="G45" s="32" t="s">
+      <c r="G45" s="29">
+        <v>0</v>
+      </c>
+      <c r="H45" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="H45" s="32" t="s">
+      <c r="I45" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="I45" s="29">
-        <v>1</v>
-      </c>
       <c r="J45" s="29">
-        <v>0</v>
-      </c>
-      <c r="K45" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="29">
+        <v>0</v>
+      </c>
+      <c r="L45" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="L45" s="32" t="s">
+      <c r="M45" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="M45" s="29">
-        <v>0</v>
-      </c>
-      <c r="N45" s="29" t="s">
-        <v>377</v>
+      <c r="N45" s="29">
+        <v>0</v>
       </c>
       <c r="O45" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="P45" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="P45" s="29" t="s">
+      <c r="Q45" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="Q45" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>319</v>
       </c>
@@ -14286,41 +14629,44 @@
       <c r="F46" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="G46" s="32" t="s">
+      <c r="G46" s="29">
+        <v>0</v>
+      </c>
+      <c r="H46" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="H46" s="32" t="s">
+      <c r="I46" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="I46" s="29">
-        <v>1</v>
-      </c>
       <c r="J46" s="29">
-        <v>0</v>
-      </c>
-      <c r="K46" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" s="29">
+        <v>0</v>
+      </c>
+      <c r="L46" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="L46" s="32" t="s">
+      <c r="M46" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="M46" s="29">
-        <v>0</v>
-      </c>
-      <c r="N46" s="29" t="s">
-        <v>377</v>
+      <c r="N46" s="29">
+        <v>0</v>
       </c>
       <c r="O46" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="P46" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="P46" s="29" t="s">
+      <c r="Q46" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="Q46" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>320</v>
       </c>
@@ -14339,41 +14685,44 @@
       <c r="F47" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="G47" s="32" t="s">
+      <c r="G47" s="29">
+        <v>0</v>
+      </c>
+      <c r="H47" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="H47" s="32" t="s">
+      <c r="I47" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="I47" s="29">
-        <v>1</v>
-      </c>
       <c r="J47" s="29">
-        <v>0</v>
-      </c>
-      <c r="K47" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="29">
+        <v>0</v>
+      </c>
+      <c r="L47" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="L47" s="32" t="s">
+      <c r="M47" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="M47" s="29">
-        <v>0</v>
-      </c>
-      <c r="N47" s="29" t="s">
-        <v>377</v>
+      <c r="N47" s="29">
+        <v>0</v>
       </c>
       <c r="O47" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="P47" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="P47" s="29" t="s">
+      <c r="Q47" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="Q47" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>321</v>
       </c>
@@ -14392,41 +14741,44 @@
       <c r="F48" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="G48" s="48" t="s">
+      <c r="G48" s="47">
+        <v>0</v>
+      </c>
+      <c r="H48" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="H48" s="48" t="s">
+      <c r="I48" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="I48" s="47">
-        <v>1</v>
-      </c>
       <c r="J48" s="47">
-        <v>0</v>
-      </c>
-      <c r="K48" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" s="47">
+        <v>0</v>
+      </c>
+      <c r="L48" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="L48" s="48" t="s">
+      <c r="M48" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="M48" s="47">
-        <v>1</v>
-      </c>
-      <c r="N48" s="47" t="s">
-        <v>377</v>
+      <c r="N48" s="47">
+        <v>1</v>
       </c>
       <c r="O48" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="P48" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="P48" s="47" t="s">
+      <c r="Q48" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="Q48" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>322</v>
       </c>
@@ -14445,41 +14797,44 @@
       <c r="F49" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="G49" s="48" t="s">
+      <c r="G49" s="47">
+        <v>0</v>
+      </c>
+      <c r="H49" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="H49" s="48" t="s">
+      <c r="I49" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="I49" s="47">
-        <v>1</v>
-      </c>
       <c r="J49" s="47">
-        <v>0</v>
-      </c>
-      <c r="K49" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="47">
+        <v>0</v>
+      </c>
+      <c r="L49" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="L49" s="48" t="s">
+      <c r="M49" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="M49" s="47">
-        <v>1</v>
-      </c>
-      <c r="N49" s="47" t="s">
-        <v>377</v>
+      <c r="N49" s="47">
+        <v>1</v>
       </c>
       <c r="O49" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="P49" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="P49" s="47" t="s">
+      <c r="Q49" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="Q49" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>323</v>
       </c>
@@ -14498,41 +14853,44 @@
       <c r="F50" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="G50" s="48" t="s">
+      <c r="G50" s="47">
+        <v>0</v>
+      </c>
+      <c r="H50" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="H50" s="48" t="s">
+      <c r="I50" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="I50" s="47">
-        <v>1</v>
-      </c>
       <c r="J50" s="47">
-        <v>0</v>
-      </c>
-      <c r="K50" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="47">
+        <v>0</v>
+      </c>
+      <c r="L50" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="L50" s="48" t="s">
+      <c r="M50" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="M50" s="47">
-        <v>1</v>
-      </c>
-      <c r="N50" s="47" t="s">
-        <v>377</v>
+      <c r="N50" s="47">
+        <v>1</v>
       </c>
       <c r="O50" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="P50" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="P50" s="47" t="s">
+      <c r="Q50" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="Q50" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>324</v>
       </c>
@@ -14551,41 +14909,44 @@
       <c r="F51" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="G51" s="48" t="s">
+      <c r="G51" s="47">
+        <v>0</v>
+      </c>
+      <c r="H51" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="H51" s="48" t="s">
+      <c r="I51" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="I51" s="47">
-        <v>1</v>
-      </c>
       <c r="J51" s="47">
-        <v>0</v>
-      </c>
-      <c r="K51" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" s="47">
+        <v>0</v>
+      </c>
+      <c r="L51" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="L51" s="48" t="s">
+      <c r="M51" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="M51" s="47">
-        <v>1</v>
-      </c>
-      <c r="N51" s="47" t="s">
-        <v>377</v>
+      <c r="N51" s="47">
+        <v>1</v>
       </c>
       <c r="O51" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="P51" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="P51" s="47" t="s">
+      <c r="Q51" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="Q51" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
         <v>325</v>
       </c>
@@ -14604,41 +14965,44 @@
       <c r="F52" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="G52" s="48" t="s">
+      <c r="G52" s="47">
+        <v>0</v>
+      </c>
+      <c r="H52" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="H52" s="48" t="s">
+      <c r="I52" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="I52" s="47">
-        <v>1</v>
-      </c>
       <c r="J52" s="47">
-        <v>0</v>
-      </c>
-      <c r="K52" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" s="47">
+        <v>0</v>
+      </c>
+      <c r="L52" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="L52" s="48" t="s">
+      <c r="M52" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="M52" s="47">
-        <v>1</v>
-      </c>
-      <c r="N52" s="47" t="s">
-        <v>377</v>
+      <c r="N52" s="47">
+        <v>1</v>
       </c>
       <c r="O52" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="P52" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="P52" s="47" t="s">
+      <c r="Q52" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="Q52" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>326</v>
       </c>
@@ -14657,41 +15021,44 @@
       <c r="F53" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="G53" s="48" t="s">
+      <c r="G53" s="47">
+        <v>0</v>
+      </c>
+      <c r="H53" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="H53" s="48" t="s">
+      <c r="I53" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="I53" s="47">
-        <v>1</v>
-      </c>
       <c r="J53" s="47">
-        <v>0</v>
-      </c>
-      <c r="K53" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="K53" s="47">
+        <v>0</v>
+      </c>
+      <c r="L53" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="L53" s="48" t="s">
+      <c r="M53" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="M53" s="47">
-        <v>1</v>
-      </c>
-      <c r="N53" s="47" t="s">
-        <v>377</v>
+      <c r="N53" s="47">
+        <v>1</v>
       </c>
       <c r="O53" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="P53" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="P53" s="47" t="s">
+      <c r="Q53" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="Q53" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
         <v>327</v>
       </c>
@@ -14710,41 +15077,44 @@
       <c r="F54" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="G54" s="48" t="s">
+      <c r="G54" s="47">
+        <v>0</v>
+      </c>
+      <c r="H54" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="H54" s="48" t="s">
+      <c r="I54" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="I54" s="47">
-        <v>1</v>
-      </c>
       <c r="J54" s="47">
-        <v>0</v>
-      </c>
-      <c r="K54" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="K54" s="47">
+        <v>0</v>
+      </c>
+      <c r="L54" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="L54" s="48" t="s">
+      <c r="M54" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="M54" s="47">
-        <v>1</v>
-      </c>
-      <c r="N54" s="47" t="s">
-        <v>377</v>
+      <c r="N54" s="47">
+        <v>1</v>
       </c>
       <c r="O54" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="P54" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="P54" s="47" t="s">
+      <c r="Q54" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="Q54" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
         <v>328</v>
       </c>
@@ -14763,41 +15133,44 @@
       <c r="F55" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="G55" s="48" t="s">
+      <c r="G55" s="47">
+        <v>0</v>
+      </c>
+      <c r="H55" s="48" t="s">
         <v>460</v>
       </c>
-      <c r="H55" s="48" t="s">
+      <c r="I55" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="I55" s="47">
-        <v>0</v>
-      </c>
       <c r="J55" s="47">
         <v>0</v>
       </c>
-      <c r="K55" s="47" t="s">
+      <c r="K55" s="47">
+        <v>0</v>
+      </c>
+      <c r="L55" s="47" t="s">
         <v>495</v>
       </c>
-      <c r="L55" s="48" t="s">
+      <c r="M55" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="M55" s="47">
-        <v>1</v>
-      </c>
       <c r="N55" s="47">
-        <v>0</v>
-      </c>
-      <c r="O55" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="O55" s="47">
+        <v>0</v>
+      </c>
+      <c r="P55" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="P55" s="47" t="s">
+      <c r="Q55" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="Q55" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
         <v>329</v>
       </c>
@@ -14816,41 +15189,44 @@
       <c r="F56" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="G56" s="48" t="s">
+      <c r="G56" s="47">
+        <v>0</v>
+      </c>
+      <c r="H56" s="48" t="s">
         <v>460</v>
       </c>
-      <c r="H56" s="48" t="s">
+      <c r="I56" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="I56" s="47">
-        <v>0</v>
-      </c>
       <c r="J56" s="47">
         <v>0</v>
       </c>
-      <c r="K56" s="47" t="s">
+      <c r="K56" s="47">
+        <v>0</v>
+      </c>
+      <c r="L56" s="47" t="s">
         <v>495</v>
       </c>
-      <c r="L56" s="48" t="s">
+      <c r="M56" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="M56" s="47">
-        <v>1</v>
-      </c>
       <c r="N56" s="47">
-        <v>0</v>
-      </c>
-      <c r="O56" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="O56" s="47">
+        <v>0</v>
+      </c>
+      <c r="P56" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="P56" s="47" t="s">
+      <c r="Q56" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="Q56" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
         <v>330</v>
       </c>
@@ -14869,41 +15245,44 @@
       <c r="F57" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="G57" s="48" t="s">
+      <c r="G57" s="47">
+        <v>0</v>
+      </c>
+      <c r="H57" s="48" t="s">
         <v>460</v>
       </c>
-      <c r="H57" s="48" t="s">
+      <c r="I57" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="I57" s="47">
-        <v>0</v>
-      </c>
       <c r="J57" s="47">
         <v>0</v>
       </c>
-      <c r="K57" s="47" t="s">
+      <c r="K57" s="47">
+        <v>0</v>
+      </c>
+      <c r="L57" s="47" t="s">
         <v>495</v>
       </c>
-      <c r="L57" s="48" t="s">
+      <c r="M57" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="M57" s="47">
-        <v>1</v>
-      </c>
       <c r="N57" s="47">
-        <v>0</v>
-      </c>
-      <c r="O57" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="O57" s="47">
+        <v>0</v>
+      </c>
+      <c r="P57" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="P57" s="47" t="s">
+      <c r="Q57" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="Q57" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
         <v>331</v>
       </c>
@@ -14922,41 +15301,44 @@
       <c r="F58" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="G58" s="48" t="s">
+      <c r="G58" s="47">
+        <v>0</v>
+      </c>
+      <c r="H58" s="48" t="s">
         <v>460</v>
       </c>
-      <c r="H58" s="48" t="s">
+      <c r="I58" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="I58" s="47">
-        <v>0</v>
-      </c>
       <c r="J58" s="47">
         <v>0</v>
       </c>
-      <c r="K58" s="47" t="s">
+      <c r="K58" s="47">
+        <v>0</v>
+      </c>
+      <c r="L58" s="47" t="s">
         <v>495</v>
       </c>
-      <c r="L58" s="48" t="s">
+      <c r="M58" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="M58" s="47">
-        <v>1</v>
-      </c>
       <c r="N58" s="47">
-        <v>0</v>
-      </c>
-      <c r="O58" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="O58" s="47">
+        <v>0</v>
+      </c>
+      <c r="P58" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="P58" s="47" t="s">
+      <c r="Q58" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="Q58" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
         <v>332</v>
       </c>
@@ -14975,41 +15357,44 @@
       <c r="F59" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="G59" s="44" t="s">
+      <c r="G59" s="43">
+        <v>0</v>
+      </c>
+      <c r="H59" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="H59" s="44" t="s">
+      <c r="I59" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="I59" s="43">
-        <v>0</v>
-      </c>
       <c r="J59" s="43">
-        <v>1</v>
-      </c>
-      <c r="K59" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K59" s="43">
+        <v>1</v>
+      </c>
+      <c r="L59" s="43" t="s">
         <v>490</v>
       </c>
-      <c r="L59" s="44" t="s">
+      <c r="M59" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="M59" s="43">
-        <v>1</v>
-      </c>
-      <c r="N59" s="43" t="s">
-        <v>377</v>
+      <c r="N59" s="43">
+        <v>1</v>
       </c>
       <c r="O59" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="P59" s="43" t="s">
         <v>497</v>
       </c>
-      <c r="P59" s="43" t="s">
+      <c r="Q59" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="Q59" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
         <v>334</v>
       </c>
@@ -15028,41 +15413,44 @@
       <c r="F60" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="G60" s="44" t="s">
+      <c r="G60" s="43">
+        <v>0</v>
+      </c>
+      <c r="H60" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="H60" s="44" t="s">
+      <c r="I60" s="44" t="s">
         <v>376</v>
       </c>
-      <c r="I60" s="43">
-        <v>0</v>
-      </c>
       <c r="J60" s="43">
         <v>0</v>
       </c>
-      <c r="K60" s="43" t="s">
+      <c r="K60" s="43">
+        <v>0</v>
+      </c>
+      <c r="L60" s="43" t="s">
         <v>495</v>
       </c>
-      <c r="L60" s="44" t="s">
+      <c r="M60" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="M60" s="43">
-        <v>1</v>
-      </c>
       <c r="N60" s="43">
         <v>1</v>
       </c>
-      <c r="O60" s="43" t="s">
+      <c r="O60" s="43">
+        <v>1</v>
+      </c>
+      <c r="P60" s="43" t="s">
         <v>497</v>
       </c>
-      <c r="P60" s="43" t="s">
+      <c r="Q60" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="Q60" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="43" t="s">
         <v>336</v>
       </c>
@@ -15081,41 +15469,44 @@
       <c r="F61" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="G61" s="44" t="s">
+      <c r="G61" s="43">
+        <v>0</v>
+      </c>
+      <c r="H61" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="H61" s="44">
+      <c r="I61" s="44">
         <v>10</v>
       </c>
-      <c r="I61" s="43">
-        <v>0</v>
-      </c>
       <c r="J61" s="43">
-        <v>1</v>
-      </c>
-      <c r="K61" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K61" s="43">
+        <v>1</v>
+      </c>
+      <c r="L61" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="L61" s="44" t="s">
+      <c r="M61" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="M61" s="43" t="s">
-        <v>377</v>
-      </c>
       <c r="N61" s="43" t="s">
         <v>377</v>
       </c>
       <c r="O61" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="P61" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="P61" s="43" t="s">
+      <c r="Q61" s="43" t="s">
         <v>497</v>
       </c>
-      <c r="Q61" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
         <v>337</v>
       </c>
@@ -15134,41 +15525,44 @@
       <c r="F62" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="G62" s="44" t="s">
+      <c r="G62" s="43">
+        <v>0</v>
+      </c>
+      <c r="H62" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="H62" s="44">
+      <c r="I62" s="44">
         <v>10</v>
       </c>
-      <c r="I62" s="43">
-        <v>0</v>
-      </c>
       <c r="J62" s="43">
-        <v>1</v>
-      </c>
-      <c r="K62" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K62" s="43">
+        <v>1</v>
+      </c>
+      <c r="L62" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="L62" s="44" t="s">
+      <c r="M62" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="M62" s="43" t="s">
-        <v>377</v>
-      </c>
       <c r="N62" s="43" t="s">
         <v>377</v>
       </c>
       <c r="O62" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="P62" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="P62" s="43" t="s">
+      <c r="Q62" s="43" t="s">
         <v>505</v>
       </c>
-      <c r="Q62" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
         <v>338</v>
       </c>
@@ -15187,41 +15581,44 @@
       <c r="F63" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="G63" s="44" t="s">
+      <c r="G63" s="43">
+        <v>0</v>
+      </c>
+      <c r="H63" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="H63" s="44">
+      <c r="I63" s="44">
         <v>10</v>
       </c>
-      <c r="I63" s="43">
-        <v>0</v>
-      </c>
       <c r="J63" s="43">
-        <v>1</v>
-      </c>
-      <c r="K63" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" s="43">
+        <v>1</v>
+      </c>
+      <c r="L63" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="L63" s="44" t="s">
+      <c r="M63" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="M63" s="43" t="s">
-        <v>377</v>
-      </c>
       <c r="N63" s="43" t="s">
         <v>377</v>
       </c>
       <c r="O63" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="P63" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="P63" s="43" t="s">
+      <c r="Q63" s="43" t="s">
         <v>509</v>
       </c>
-      <c r="Q63" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
         <v>339</v>
       </c>
@@ -15240,41 +15637,44 @@
       <c r="F64" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="G64" s="44" t="s">
+      <c r="G64" s="43">
+        <v>1</v>
+      </c>
+      <c r="H64" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="H64" s="44">
+      <c r="I64" s="44">
         <v>10</v>
       </c>
-      <c r="I64" s="43">
-        <v>0</v>
-      </c>
       <c r="J64" s="43">
-        <v>1</v>
-      </c>
-      <c r="K64" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K64" s="43">
+        <v>1</v>
+      </c>
+      <c r="L64" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="L64" s="44" t="s">
+      <c r="M64" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="M64" s="43" t="s">
-        <v>377</v>
-      </c>
       <c r="N64" s="43" t="s">
         <v>377</v>
       </c>
       <c r="O64" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="P64" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="P64" s="43" t="s">
+      <c r="Q64" s="43" t="s">
         <v>510</v>
       </c>
-      <c r="Q64" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
         <v>340</v>
       </c>
@@ -15293,41 +15693,44 @@
       <c r="F65" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="G65" s="44" t="s">
+      <c r="G65" s="43">
+        <v>0</v>
+      </c>
+      <c r="H65" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="H65" s="44">
+      <c r="I65" s="44">
         <v>10</v>
       </c>
-      <c r="I65" s="43">
-        <v>0</v>
-      </c>
       <c r="J65" s="43">
-        <v>1</v>
-      </c>
-      <c r="K65" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K65" s="43">
+        <v>1</v>
+      </c>
+      <c r="L65" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="L65" s="44" t="s">
+      <c r="M65" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="M65" s="43" t="s">
-        <v>377</v>
-      </c>
       <c r="N65" s="43" t="s">
         <v>377</v>
       </c>
       <c r="O65" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="P65" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="P65" s="43" t="s">
+      <c r="Q65" s="43" t="s">
         <v>511</v>
       </c>
-      <c r="Q65" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R65" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
         <v>341</v>
       </c>
@@ -15346,41 +15749,44 @@
       <c r="F66" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="G66" s="44" t="s">
+      <c r="G66" s="43">
+        <v>0</v>
+      </c>
+      <c r="H66" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="H66" s="44">
+      <c r="I66" s="44">
         <v>10</v>
       </c>
-      <c r="I66" s="43">
-        <v>0</v>
-      </c>
       <c r="J66" s="43">
-        <v>1</v>
-      </c>
-      <c r="K66" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K66" s="43">
+        <v>1</v>
+      </c>
+      <c r="L66" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="L66" s="44" t="s">
+      <c r="M66" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="M66" s="43" t="s">
-        <v>377</v>
-      </c>
       <c r="N66" s="43" t="s">
         <v>377</v>
       </c>
       <c r="O66" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="P66" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="P66" s="43" t="s">
+      <c r="Q66" s="43" t="s">
         <v>603</v>
       </c>
-      <c r="Q66" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R66" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="55" t="s">
         <v>350</v>
       </c>
@@ -15399,41 +15805,44 @@
       <c r="F67" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="G67" s="56" t="s">
+      <c r="G67" s="55">
+        <v>0</v>
+      </c>
+      <c r="H67" s="56" t="s">
         <v>467</v>
       </c>
-      <c r="H67" s="56" t="s">
+      <c r="I67" s="56" t="s">
         <v>376</v>
       </c>
-      <c r="I67" s="55">
-        <v>1</v>
-      </c>
       <c r="J67" s="55">
-        <v>0</v>
-      </c>
-      <c r="K67" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K67" s="55">
+        <v>0</v>
+      </c>
+      <c r="L67" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="L67" s="56" t="s">
+      <c r="M67" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="M67" s="55" t="s">
-        <v>377</v>
-      </c>
       <c r="N67" s="55" t="s">
         <v>377</v>
       </c>
       <c r="O67" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="P67" s="55" t="s">
         <v>462</v>
       </c>
-      <c r="P67" s="55" t="s">
+      <c r="Q67" s="55" t="s">
         <v>514</v>
       </c>
-      <c r="Q67" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R67" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="55" t="s">
         <v>351</v>
       </c>
@@ -15452,41 +15861,44 @@
       <c r="F68" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="G68" s="56" t="s">
+      <c r="G68" s="55">
+        <v>0</v>
+      </c>
+      <c r="H68" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="H68" s="56" t="s">
+      <c r="I68" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="I68" s="55">
-        <v>0</v>
-      </c>
       <c r="J68" s="55">
-        <v>1</v>
-      </c>
-      <c r="K68" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="K68" s="55">
+        <v>1</v>
+      </c>
+      <c r="L68" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="L68" s="56" t="s">
+      <c r="M68" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="M68" s="55" t="s">
-        <v>377</v>
-      </c>
       <c r="N68" s="55" t="s">
         <v>377</v>
       </c>
       <c r="O68" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="P68" s="55" t="s">
         <v>521</v>
       </c>
-      <c r="P68" s="55" t="s">
+      <c r="Q68" s="55" t="s">
         <v>462</v>
       </c>
-      <c r="Q68" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R68" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="55" t="s">
         <v>356</v>
       </c>
@@ -15505,41 +15917,44 @@
       <c r="F69" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="G69" s="56" t="s">
+      <c r="G69" s="55">
+        <v>0</v>
+      </c>
+      <c r="H69" s="56" t="s">
         <v>467</v>
       </c>
-      <c r="H69" s="56" t="s">
+      <c r="I69" s="56" t="s">
         <v>376</v>
       </c>
-      <c r="I69" s="55">
-        <v>1</v>
-      </c>
       <c r="J69" s="55">
-        <v>0</v>
-      </c>
-      <c r="K69" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K69" s="55">
+        <v>0</v>
+      </c>
+      <c r="L69" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="L69" s="56" t="s">
+      <c r="M69" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="M69" s="55" t="s">
-        <v>377</v>
-      </c>
       <c r="N69" s="55" t="s">
         <v>377</v>
       </c>
       <c r="O69" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="P69" s="55" t="s">
         <v>462</v>
       </c>
-      <c r="P69" s="55" t="s">
+      <c r="Q69" s="55" t="s">
         <v>514</v>
       </c>
-      <c r="Q69" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R69" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="55" t="s">
         <v>357</v>
       </c>
@@ -15558,41 +15973,44 @@
       <c r="F70" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="G70" s="56" t="s">
+      <c r="G70" s="55">
+        <v>0</v>
+      </c>
+      <c r="H70" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="H70" s="56" t="s">
+      <c r="I70" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="I70" s="55">
-        <v>0</v>
-      </c>
       <c r="J70" s="55">
-        <v>1</v>
-      </c>
-      <c r="K70" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="K70" s="55">
+        <v>1</v>
+      </c>
+      <c r="L70" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="L70" s="56" t="s">
+      <c r="M70" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="M70" s="55" t="s">
-        <v>377</v>
-      </c>
       <c r="N70" s="55" t="s">
         <v>377</v>
       </c>
       <c r="O70" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="P70" s="55" t="s">
         <v>521</v>
       </c>
-      <c r="P70" s="55" t="s">
+      <c r="Q70" s="55" t="s">
         <v>462</v>
       </c>
-      <c r="Q70" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="43" t="s">
         <v>358</v>
       </c>
@@ -15611,41 +16029,44 @@
       <c r="F71" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="G71" s="44" t="s">
+      <c r="G71" s="43">
+        <v>0</v>
+      </c>
+      <c r="H71" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="H71" s="44">
+      <c r="I71" s="44">
         <v>10</v>
       </c>
-      <c r="I71" s="43">
-        <v>0</v>
-      </c>
       <c r="J71" s="43">
-        <v>1</v>
-      </c>
-      <c r="K71" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K71" s="43">
+        <v>1</v>
+      </c>
+      <c r="L71" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="L71" s="44" t="s">
+      <c r="M71" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="M71" s="43" t="s">
-        <v>377</v>
-      </c>
       <c r="N71" s="43" t="s">
         <v>377</v>
       </c>
       <c r="O71" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="P71" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="P71" s="43" t="s">
+      <c r="Q71" s="43" t="s">
         <v>604</v>
       </c>
-      <c r="Q71" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R71" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="55" t="s">
         <v>359</v>
       </c>
@@ -15664,41 +16085,44 @@
       <c r="F72" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="G72" s="56" t="s">
+      <c r="G72" s="55">
+        <v>0</v>
+      </c>
+      <c r="H72" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="H72" s="56">
+      <c r="I72" s="56">
         <v>10</v>
       </c>
-      <c r="I72" s="55">
-        <v>0</v>
-      </c>
       <c r="J72" s="55">
-        <v>1</v>
-      </c>
-      <c r="K72" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="K72" s="55">
+        <v>1</v>
+      </c>
+      <c r="L72" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="L72" s="56" t="s">
+      <c r="M72" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="M72" s="55" t="s">
-        <v>377</v>
-      </c>
       <c r="N72" s="55" t="s">
         <v>377</v>
       </c>
       <c r="O72" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="P72" s="55" t="s">
         <v>462</v>
       </c>
-      <c r="P72" s="55" t="s">
+      <c r="Q72" s="55" t="s">
         <v>605</v>
       </c>
-      <c r="Q72" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R72" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="55" t="s">
         <v>360</v>
       </c>
@@ -15717,41 +16141,44 @@
       <c r="F73" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="G73" s="56" t="s">
+      <c r="G73" s="55">
+        <v>0</v>
+      </c>
+      <c r="H73" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="H73" s="56">
+      <c r="I73" s="56">
         <v>10</v>
       </c>
-      <c r="I73" s="55">
-        <v>0</v>
-      </c>
       <c r="J73" s="55">
-        <v>1</v>
-      </c>
-      <c r="K73" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="K73" s="55">
+        <v>1</v>
+      </c>
+      <c r="L73" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="L73" s="56" t="s">
+      <c r="M73" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="M73" s="55" t="s">
-        <v>377</v>
-      </c>
       <c r="N73" s="55" t="s">
         <v>377</v>
       </c>
       <c r="O73" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="P73" s="55" t="s">
         <v>462</v>
       </c>
-      <c r="P73" s="55" t="s">
+      <c r="Q73" s="55" t="s">
         <v>606</v>
       </c>
-      <c r="Q73" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R73" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="43" t="s">
         <v>364</v>
       </c>
@@ -15770,41 +16197,44 @@
       <c r="F74" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="G74" s="44" t="s">
+      <c r="G74" s="43">
+        <v>0</v>
+      </c>
+      <c r="H74" s="44" t="s">
         <v>467</v>
       </c>
-      <c r="H74" s="44" t="s">
+      <c r="I74" s="44" t="s">
         <v>376</v>
       </c>
-      <c r="I74" s="43">
-        <v>1</v>
-      </c>
       <c r="J74" s="43">
-        <v>0</v>
-      </c>
-      <c r="K74" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K74" s="43">
+        <v>0</v>
+      </c>
+      <c r="L74" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="L74" s="44" t="s">
+      <c r="M74" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="M74" s="43" t="s">
-        <v>377</v>
-      </c>
       <c r="N74" s="43" t="s">
         <v>377</v>
       </c>
       <c r="O74" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="P74" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="P74" s="43" t="s">
+      <c r="Q74" s="43" t="s">
         <v>607</v>
       </c>
-      <c r="Q74" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R74" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="43" t="s">
         <v>365</v>
       </c>
@@ -15823,41 +16253,44 @@
       <c r="F75" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="G75" s="44" t="s">
+      <c r="G75" s="43">
+        <v>0</v>
+      </c>
+      <c r="H75" s="44" t="s">
         <v>467</v>
       </c>
-      <c r="H75" s="44" t="s">
+      <c r="I75" s="44" t="s">
         <v>376</v>
       </c>
-      <c r="I75" s="43">
-        <v>1</v>
-      </c>
       <c r="J75" s="43">
-        <v>0</v>
-      </c>
-      <c r="K75" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K75" s="43">
+        <v>0</v>
+      </c>
+      <c r="L75" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="L75" s="44" t="s">
+      <c r="M75" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="M75" s="43" t="s">
-        <v>377</v>
-      </c>
       <c r="N75" s="43" t="s">
         <v>377</v>
       </c>
       <c r="O75" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="P75" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="P75" s="43" t="s">
+      <c r="Q75" s="43" t="s">
         <v>607</v>
       </c>
-      <c r="Q75" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R75" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="43" t="s">
         <v>366</v>
       </c>
@@ -15876,41 +16309,44 @@
       <c r="F76" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="G76" s="44" t="s">
+      <c r="G76" s="43">
+        <v>0</v>
+      </c>
+      <c r="H76" s="44" t="s">
         <v>467</v>
       </c>
-      <c r="H76" s="44" t="s">
+      <c r="I76" s="44" t="s">
         <v>376</v>
       </c>
-      <c r="I76" s="43">
-        <v>1</v>
-      </c>
       <c r="J76" s="43">
-        <v>0</v>
-      </c>
-      <c r="K76" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K76" s="43">
+        <v>0</v>
+      </c>
+      <c r="L76" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="L76" s="44" t="s">
+      <c r="M76" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="M76" s="43" t="s">
-        <v>377</v>
-      </c>
       <c r="N76" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="O76" s="55" t="s">
+      <c r="O76" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="P76" s="55" t="s">
         <v>462</v>
       </c>
-      <c r="P76" s="43" t="s">
+      <c r="Q76" s="43" t="s">
         <v>607</v>
       </c>
-      <c r="Q76" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R76" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="55" t="s">
         <v>370</v>
       </c>
@@ -15929,41 +16365,44 @@
       <c r="F77" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="G77" s="56" t="s">
+      <c r="G77" s="55">
+        <v>0</v>
+      </c>
+      <c r="H77" s="56" t="s">
         <v>467</v>
       </c>
-      <c r="H77" s="56" t="s">
+      <c r="I77" s="56" t="s">
         <v>376</v>
       </c>
-      <c r="I77" s="55">
-        <v>1</v>
-      </c>
       <c r="J77" s="55">
-        <v>0</v>
-      </c>
-      <c r="K77" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K77" s="55">
+        <v>0</v>
+      </c>
+      <c r="L77" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="L77" s="56" t="s">
+      <c r="M77" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="M77" s="55">
-        <v>0</v>
-      </c>
-      <c r="N77" s="55" t="s">
-        <v>377</v>
+      <c r="N77" s="55">
+        <v>0</v>
       </c>
       <c r="O77" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="P77" s="55" t="s">
         <v>462</v>
       </c>
-      <c r="P77" s="55" t="s">
+      <c r="Q77" s="55" t="s">
         <v>608</v>
       </c>
-      <c r="Q77" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R77" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
         <v>371</v>
       </c>
@@ -15982,41 +16421,44 @@
       <c r="F78" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="G78" s="44" t="s">
+      <c r="G78" s="43">
+        <v>0</v>
+      </c>
+      <c r="H78" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="H78" s="44" t="s">
+      <c r="I78" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="I78" s="43">
-        <v>0</v>
-      </c>
       <c r="J78" s="43">
-        <v>1</v>
-      </c>
-      <c r="K78" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K78" s="43">
+        <v>1</v>
+      </c>
+      <c r="L78" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="L78" s="44" t="s">
+      <c r="M78" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="M78" s="43">
-        <v>0</v>
-      </c>
-      <c r="N78" s="43" t="s">
-        <v>377</v>
-      </c>
-      <c r="O78" s="55" t="s">
+      <c r="N78" s="43">
+        <v>0</v>
+      </c>
+      <c r="O78" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="P78" s="55" t="s">
         <v>609</v>
       </c>
-      <c r="P78" s="43" t="s">
+      <c r="Q78" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="Q78" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R78" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="55" t="s">
         <v>181</v>
       </c>
@@ -16035,39 +16477,42 @@
       <c r="F79" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="G79" s="55" t="s">
+      <c r="G79" s="55">
+        <v>0</v>
+      </c>
+      <c r="H79" s="55" t="s">
         <v>460</v>
       </c>
-      <c r="H79" s="55"/>
-      <c r="I79" s="55">
-        <v>0</v>
-      </c>
+      <c r="I79" s="55"/>
       <c r="J79" s="55">
-        <v>1</v>
-      </c>
-      <c r="K79" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="K79" s="55">
+        <v>1</v>
+      </c>
+      <c r="L79" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="L79" s="55">
-        <v>0</v>
-      </c>
-      <c r="M79" s="55" t="s">
-        <v>377</v>
+      <c r="M79" s="55">
+        <v>0</v>
       </c>
       <c r="N79" s="55" t="s">
         <v>377</v>
       </c>
       <c r="O79" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="P79" s="55" t="s">
         <v>462</v>
       </c>
-      <c r="P79" s="55" t="s">
+      <c r="Q79" s="55" t="s">
         <v>627</v>
       </c>
-      <c r="Q79" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R79" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="27"/>
       <c r="B80" s="27"/>
       <c r="C80" s="27"/>
@@ -16085,8 +16530,9 @@
       <c r="O80" s="27"/>
       <c r="P80" s="27"/>
       <c r="Q80" s="27"/>
-    </row>
-    <row r="81" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R80" s="27"/>
+    </row>
+    <row r="81" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26"/>
       <c r="B81" s="27"/>
       <c r="C81" s="27"/>
@@ -16094,18 +16540,19 @@
       <c r="E81" s="27"/>
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="34"/>
       <c r="J81" s="27"/>
       <c r="K81" s="27"/>
-      <c r="L81" s="34"/>
-      <c r="M81" s="27"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="34"/>
       <c r="N81" s="27"/>
       <c r="O81" s="27"/>
       <c r="P81" s="27"/>
       <c r="Q81" s="27"/>
-    </row>
-    <row r="82" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R81" s="27"/>
+    </row>
+    <row r="82" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="26"/>
       <c r="B82" s="27"/>
       <c r="C82" s="27"/>
@@ -16113,18 +16560,19 @@
       <c r="E82" s="27"/>
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="34"/>
       <c r="J82" s="27"/>
       <c r="K82" s="27"/>
-      <c r="L82" s="34"/>
-      <c r="M82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="34"/>
       <c r="N82" s="27"/>
       <c r="O82" s="27"/>
       <c r="P82" s="27"/>
       <c r="Q82" s="27"/>
-    </row>
-    <row r="83" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R82" s="27"/>
+    </row>
+    <row r="83" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="26"/>
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
@@ -16132,18 +16580,19 @@
       <c r="E83" s="27"/>
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="34"/>
       <c r="J83" s="27"/>
       <c r="K83" s="27"/>
-      <c r="L83" s="34"/>
-      <c r="M83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="34"/>
       <c r="N83" s="27"/>
       <c r="O83" s="27"/>
       <c r="P83" s="27"/>
       <c r="Q83" s="27"/>
-    </row>
-    <row r="84" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R83" s="27"/>
+    </row>
+    <row r="84" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="26"/>
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
@@ -16151,18 +16600,19 @@
       <c r="E84" s="27"/>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="34"/>
       <c r="J84" s="27"/>
       <c r="K84" s="27"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="34"/>
       <c r="N84" s="27"/>
       <c r="O84" s="27"/>
       <c r="P84" s="27"/>
       <c r="Q84" s="27"/>
-    </row>
-    <row r="86" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R84" s="27"/>
+    </row>
+    <row r="86" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
@@ -16170,18 +16620,19 @@
       <c r="E86" s="27"/>
       <c r="F86" s="27"/>
       <c r="G86" s="27"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="34"/>
       <c r="J86" s="27"/>
       <c r="K86" s="27"/>
-      <c r="L86" s="34"/>
-      <c r="M86" s="27"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="34"/>
       <c r="N86" s="27"/>
       <c r="O86" s="27"/>
       <c r="P86" s="27"/>
       <c r="Q86" s="27"/>
-    </row>
-    <row r="87" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R86" s="27"/>
+    </row>
+    <row r="87" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
@@ -16189,18 +16640,19 @@
       <c r="E87" s="27"/>
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="34"/>
       <c r="J87" s="27"/>
       <c r="K87" s="27"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="27"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="34"/>
       <c r="N87" s="27"/>
       <c r="O87" s="27"/>
       <c r="P87" s="27"/>
       <c r="Q87" s="27"/>
-    </row>
-    <row r="89" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R87" s="27"/>
+    </row>
+    <row r="89" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -16208,18 +16660,19 @@
       <c r="E89" s="27"/>
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="34"/>
       <c r="J89" s="27"/>
       <c r="K89" s="27"/>
-      <c r="L89" s="34"/>
-      <c r="M89" s="27"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="34"/>
       <c r="N89" s="27"/>
       <c r="O89" s="27"/>
       <c r="P89" s="27"/>
       <c r="Q89" s="27"/>
-    </row>
-    <row r="90" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R89" s="27"/>
+    </row>
+    <row r="90" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="26"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -16227,18 +16680,19 @@
       <c r="E90" s="27"/>
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="34"/>
       <c r="J90" s="27"/>
       <c r="K90" s="27"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="27"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="34"/>
       <c r="N90" s="27"/>
       <c r="O90" s="27"/>
       <c r="P90" s="27"/>
       <c r="Q90" s="27"/>
-    </row>
-    <row r="97" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R90" s="27"/>
+    </row>
+    <row r="97" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -16246,18 +16700,19 @@
       <c r="E97" s="27"/>
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="34"/>
       <c r="J97" s="27"/>
       <c r="K97" s="27"/>
-      <c r="L97" s="34"/>
-      <c r="M97" s="27"/>
+      <c r="L97" s="27"/>
+      <c r="M97" s="34"/>
       <c r="N97" s="27"/>
       <c r="O97" s="27"/>
       <c r="P97" s="27"/>
       <c r="Q97" s="27"/>
-    </row>
-    <row r="99" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R97" s="27"/>
+    </row>
+    <row r="99" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="26"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
@@ -16265,24 +16720,25 @@
       <c r="E99" s="27"/>
       <c r="F99" s="27"/>
       <c r="G99" s="27"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="34"/>
       <c r="J99" s="27"/>
       <c r="K99" s="27"/>
-      <c r="L99" s="34"/>
-      <c r="M99" s="27"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="34"/>
       <c r="N99" s="27"/>
       <c r="O99" s="27"/>
       <c r="P99" s="27"/>
       <c r="Q99" s="27"/>
+      <c r="R99" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G1:R1"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="G1:Q1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A27:A28"/>
@@ -17607,21 +18063,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x0101009603F281B8ECEE43AA0DA7B5805CAD2F" ma:contentTypeVersion="9" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="370e5054ef1f8688b3911609714c2ac5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9c13fae4-8f0e-4bf7-bb6a-9b6c2448ce3a" xmlns:ns4="7bbdbb3a-8099-4706-ae9c-41ed853a79c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84b6c8ead7d9b4e95c3ce1b73a5a2d9d" ns3:_="" ns4:_="">
     <xsd:import namespace="9c13fae4-8f0e-4bf7-bb6a-9b6c2448ce3a"/>
@@ -17818,32 +18259,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AF5C76D-0326-423C-9042-AE3DDCE30D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF4D283-A043-4194-AC64-051B896916C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="7bbdbb3a-8099-4706-ae9c-41ed853a79c0"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9c13fae4-8f0e-4bf7-bb6a-9b6c2448ce3a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{629BB254-E61A-4E90-BD26-80D7BE414248}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17860,4 +18291,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF4D283-A043-4194-AC64-051B896916C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c13fae4-8f0e-4bf7-bb6a-9b6c2448ce3a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7bbdbb3a-8099-4706-ae9c-41ed853a79c0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AF5C76D-0326-423C-9042-AE3DDCE30D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>